--- a/data/trans_orig/P1426-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE719A0-94E2-41FC-BC55-460A019E22C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C868048-3865-48FD-9DBE-082FB93F722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9CC4FA8-BFD8-4229-A005-0360CAD540B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5034D383-B14D-4C06-AEAB-50459D6097B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,604 +76,634 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB2D98E-971A-4C8C-AF82-703543E133B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07AF5B3-41D6-4AE2-8943-6305224458DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1442,7 +1472,7 @@
         <v>3459</v>
       </c>
       <c r="N8" s="7">
-        <v>3685519</v>
+        <v>3685518</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1493,7 +1523,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1552,10 +1582,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,13 +1600,13 @@
         <v>476028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
@@ -1585,13 +1615,13 @@
         <v>452426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -1600,13 +1630,13 @@
         <v>928454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1704,13 @@
         <v>52777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -1689,13 +1719,13 @@
         <v>65865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -1704,13 +1734,13 @@
         <v>118642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,10 +1755,10 @@
         <v>3367005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>77</v>
@@ -1743,25 +1773,25 @@
         <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>6387</v>
       </c>
       <c r="N14" s="7">
-        <v>6852159</v>
+        <v>6852160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,7 +1833,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A793CA55-345C-47BF-ACBE-F9A9225A2DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38780A30-313E-4EE6-AED5-3BE0A4000D21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,10 +2163,10 @@
         <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2145,13 +2175,13 @@
         <v>47057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2196,13 @@
         <v>2056298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1883</v>
@@ -2181,13 +2211,13 @@
         <v>1961329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3816</v>
@@ -2199,10 +2229,10 @@
         <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2300,13 @@
         <v>4619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2285,13 +2315,13 @@
         <v>8373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2300,13 +2330,13 @@
         <v>12993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2351,13 @@
         <v>542267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -2336,13 +2366,13 @@
         <v>540767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1016</v>
@@ -2351,13 +2381,13 @@
         <v>1083033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2455,13 @@
         <v>49037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2440,13 +2470,13 @@
         <v>71136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2455,13 +2485,13 @@
         <v>120173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2506,13 @@
         <v>3328581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>3262</v>
@@ -2491,13 +2521,13 @@
         <v>3460964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>6427</v>
@@ -2506,13 +2536,13 @@
         <v>6789545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D652324D-584E-4459-8325-10E699A55012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BCF1B3-7AC1-4FD5-9936-D1F9BC54271C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2604,7 +2634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2711,13 +2741,13 @@
         <v>63927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2726,13 +2756,13 @@
         <v>103748</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -2741,13 +2771,13 @@
         <v>167676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2792,13 @@
         <v>476636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1228</v>
@@ -2777,13 +2807,13 @@
         <v>728826</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1813</v>
@@ -2792,13 +2822,13 @@
         <v>1205461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2896,13 @@
         <v>74974</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -2881,13 +2911,13 @@
         <v>54140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -2896,13 +2926,13 @@
         <v>129114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,28 +2947,28 @@
         <v>2085127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>2825</v>
       </c>
       <c r="I8" s="7">
-        <v>2193080</v>
+        <v>2193079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>4717</v>
@@ -2947,13 +2977,13 @@
         <v>4278206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +3010,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247220</v>
+        <v>2247219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3021,13 +3051,13 @@
         <v>24451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3036,13 +3066,13 @@
         <v>18086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3051,13 +3081,13 @@
         <v>42538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,28 +3102,28 @@
         <v>648588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
       </c>
       <c r="I11" s="7">
-        <v>694926</v>
+        <v>694927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1618</v>
@@ -3102,13 +3132,13 @@
         <v>1343514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3165,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713012</v>
+        <v>713013</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3176,13 +3206,13 @@
         <v>163353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -3191,13 +3221,13 @@
         <v>175975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>557</v>
@@ -3206,13 +3236,13 @@
         <v>339328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3257,13 @@
         <v>3210350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>5021</v>
@@ -3242,13 +3272,13 @@
         <v>3616831</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
@@ -3257,13 +3287,13 @@
         <v>6827181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1426-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C868048-3865-48FD-9DBE-082FB93F722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{730DCAF4-77CF-4322-B540-FBE524166E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5034D383-B14D-4C06-AEAB-50459D6097B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33A8B01C-0759-408F-AE72-BC54FC5104EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,421 +76,415 @@
     <t>3,05%</t>
   </si>
   <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>97,93%</t>
   </si>
   <si>
     <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
@@ -1115,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07AF5B3-41D6-4AE2-8943-6305224458DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5764A7-430D-4458-B7F7-95D7BBB2C4E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,7 +1466,7 @@
         <v>3459</v>
       </c>
       <c r="N8" s="7">
-        <v>3685518</v>
+        <v>3685519</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1523,7 +1517,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -1719,13 +1713,13 @@
         <v>65865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -1734,13 +1728,13 @@
         <v>118642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1749,13 @@
         <v>3367005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3232</v>
@@ -1770,28 +1764,28 @@
         <v>3485155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6387</v>
       </c>
       <c r="N14" s="7">
-        <v>6852160</v>
+        <v>6852159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1827,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38780A30-313E-4EE6-AED5-3BE0A4000D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5C120E-311C-48B9-BEFD-7E5D8FDB25E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1990,13 +1984,13 @@
         <v>24331</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2005,13 +1999,13 @@
         <v>35792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -2020,13 +2014,13 @@
         <v>60123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2035,13 @@
         <v>730016</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>860</v>
@@ -2056,13 +2050,13 @@
         <v>958868</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1595</v>
@@ -2071,13 +2065,13 @@
         <v>1688884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2139,13 @@
         <v>20087</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2160,13 +2154,13 @@
         <v>26971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2175,13 +2169,13 @@
         <v>47057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2190,13 @@
         <v>2056298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1883</v>
@@ -2211,13 +2205,13 @@
         <v>1961329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>3816</v>
@@ -2226,13 +2220,13 @@
         <v>4017628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2294,13 @@
         <v>4619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2315,13 +2309,13 @@
         <v>8373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2330,10 +2324,10 @@
         <v>12993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>127</v>
@@ -2357,7 +2351,7 @@
         <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -2366,13 +2360,13 @@
         <v>540767</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>1016</v>
@@ -2381,13 +2375,13 @@
         <v>1083033</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2449,13 @@
         <v>49037</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2470,13 +2464,13 @@
         <v>71136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2485,13 +2479,13 @@
         <v>120173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2500,13 @@
         <v>3328581</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>3262</v>
@@ -2521,13 +2515,13 @@
         <v>3460964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>6427</v>
@@ -2536,13 +2530,13 @@
         <v>6789545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BCF1B3-7AC1-4FD5-9936-D1F9BC54271C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E4278-03A2-4FB7-9381-4ED0328869D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2741,13 +2735,13 @@
         <v>63927</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2756,13 +2750,13 @@
         <v>103748</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -2771,13 +2765,13 @@
         <v>167676</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2786,13 @@
         <v>476636</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>1228</v>
@@ -2807,13 +2801,13 @@
         <v>728826</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1813</v>
@@ -2822,13 +2816,13 @@
         <v>1205461</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2890,13 @@
         <v>74974</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -2911,13 +2905,13 @@
         <v>54140</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -2926,13 +2920,13 @@
         <v>129114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2941,13 @@
         <v>2085127</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>2825</v>
@@ -2962,13 +2956,13 @@
         <v>2193079</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>4717</v>
@@ -2977,10 +2971,10 @@
         <v>4278206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>29</v>
@@ -3051,13 +3045,13 @@
         <v>24451</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3066,13 +3060,13 @@
         <v>18086</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3081,13 +3075,13 @@
         <v>42538</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3096,13 @@
         <v>648588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
@@ -3117,13 +3111,13 @@
         <v>694927</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1618</v>
@@ -3132,13 +3126,13 @@
         <v>1343514</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3200,13 @@
         <v>163353</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -3221,13 +3215,13 @@
         <v>175975</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>557</v>
@@ -3236,13 +3230,13 @@
         <v>339328</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3251,13 @@
         <v>3210350</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>5021</v>
@@ -3272,13 +3266,13 @@
         <v>3616831</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
@@ -3287,13 +3281,13 @@
         <v>6827181</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730DCAF4-77CF-4322-B540-FBE524166E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EEC92A-24A4-43BF-9FB7-65578573DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33A8B01C-0759-408F-AE72-BC54FC5104EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30618573-FDAF-4167-85CF-76E16849A2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,385 +70,379 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -457,52 +451,52 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
     <t>98,55%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>97,44%</t>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,64%</t>
+    <t>10,78%</t>
   </si>
   <si>
     <t>14,26%</t>
@@ -511,19 +505,19 @@
     <t>12,21%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>87,54%</t>
@@ -532,172 +526,154 @@
     <t>85,74%</t>
   </si>
   <si>
-    <t>89,36%</t>
+    <t>89,22%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>96,6%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>95,69%</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5764A7-430D-4458-B7F7-95D7BBB2C4E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0747531E-609C-41B9-ACDA-4814AC175B3C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1552,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1570,13 @@
         <v>476028</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>406</v>
@@ -1609,13 +1585,13 @@
         <v>452426</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -1624,13 +1600,13 @@
         <v>928454</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1674,13 @@
         <v>52777</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -1713,13 +1689,13 @@
         <v>65865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -1728,13 +1704,13 @@
         <v>118642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1725,13 @@
         <v>3367005</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3232</v>
@@ -1764,13 +1740,13 @@
         <v>3485155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6387</v>
@@ -1779,13 +1755,13 @@
         <v>6852159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5C120E-311C-48B9-BEFD-7E5D8FDB25E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF902A-C618-4023-8AE2-BB9B72181A92}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1877,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1984,13 +1960,13 @@
         <v>24331</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -1999,13 +1975,13 @@
         <v>35792</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -2014,13 +1990,13 @@
         <v>60123</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2011,13 @@
         <v>730016</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>860</v>
@@ -2050,13 +2026,13 @@
         <v>958868</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1595</v>
@@ -2065,13 +2041,13 @@
         <v>1688884</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2115,13 @@
         <v>20087</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2154,13 +2130,13 @@
         <v>26971</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2169,13 +2145,13 @@
         <v>47057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2166,13 @@
         <v>2056298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>1883</v>
@@ -2205,13 +2181,13 @@
         <v>1961329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>3816</v>
@@ -2220,13 +2196,13 @@
         <v>4017628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2270,13 @@
         <v>4619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2309,13 +2285,13 @@
         <v>8373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2324,13 +2300,13 @@
         <v>12993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2321,13 @@
         <v>542267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>519</v>
@@ -2360,13 +2336,13 @@
         <v>540767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1016</v>
@@ -2375,13 +2351,13 @@
         <v>1083033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2425,13 @@
         <v>49037</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2464,13 +2440,13 @@
         <v>71136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2479,13 +2455,13 @@
         <v>120173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2476,13 @@
         <v>3328581</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3262</v>
@@ -2515,13 +2491,13 @@
         <v>3460964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>6427</v>
@@ -2530,13 +2506,13 @@
         <v>6789545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9E4278-03A2-4FB7-9381-4ED0328869D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3C4E8-A54A-49A6-B6F8-B8A35156BA12}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,13 +2711,13 @@
         <v>63927</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2750,13 +2726,13 @@
         <v>103748</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>302</v>
@@ -2765,13 +2741,13 @@
         <v>167676</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2762,13 @@
         <v>476636</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>1228</v>
@@ -2801,13 +2777,13 @@
         <v>728826</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>1813</v>
@@ -2816,13 +2792,13 @@
         <v>1205461</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2866,13 @@
         <v>74974</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -2905,13 +2881,13 @@
         <v>54140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
@@ -2920,13 +2896,13 @@
         <v>129114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,28 +2917,28 @@
         <v>2085127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>2825</v>
       </c>
       <c r="I8" s="7">
-        <v>2193079</v>
+        <v>2193080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>4717</v>
@@ -2971,13 +2947,13 @@
         <v>4278206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +2980,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247219</v>
+        <v>2247220</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3045,13 +3021,13 @@
         <v>24451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3060,13 +3036,13 @@
         <v>18086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3075,13 +3051,13 @@
         <v>42538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,28 +3072,28 @@
         <v>648588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
       </c>
       <c r="I11" s="7">
-        <v>694927</v>
+        <v>694926</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1618</v>
@@ -3126,13 +3102,13 @@
         <v>1343514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3135,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713013</v>
+        <v>713012</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3200,13 +3176,13 @@
         <v>163353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -3215,13 +3191,13 @@
         <v>175975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>557</v>
@@ -3230,13 +3206,13 @@
         <v>339328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3227,13 @@
         <v>3210350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>5021</v>
@@ -3266,13 +3242,13 @@
         <v>3616831</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
@@ -3281,13 +3257,13 @@
         <v>6827181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EEC92A-24A4-43BF-9FB7-65578573DD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF6834-8266-4D7C-B546-6A8D3C4D54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30618573-FDAF-4167-85CF-76E16849A2CA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C856480-9A3C-4CF3-A931-7CC0E7C01CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -484,196 +484,184 @@
     <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0747531E-609C-41B9-ACDA-4814AC175B3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A8B742-79FC-420E-8463-7221E179E1E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1272,7 +1260,7 @@
         <v>1206</v>
       </c>
       <c r="I5" s="7">
-        <v>1293295</v>
+        <v>1293296</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1323,7 +1311,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1442,7 +1430,7 @@
         <v>3459</v>
       </c>
       <c r="N8" s="7">
-        <v>3685519</v>
+        <v>3685518</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1493,7 +1481,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1597,7 +1585,7 @@
         <v>841</v>
       </c>
       <c r="N11" s="7">
-        <v>928454</v>
+        <v>928455</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1648,7 +1636,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF902A-C618-4023-8AE2-BB9B72181A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A51E24-812F-452B-A497-5FEA02F41E2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2348,7 +2336,7 @@
         <v>1016</v>
       </c>
       <c r="N11" s="7">
-        <v>1083033</v>
+        <v>1083034</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>130</v>
@@ -2399,7 +2387,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2587,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3C4E8-A54A-49A6-B6F8-B8A35156BA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D927D95A-D06F-42C6-A441-214126C59E9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2696,7 @@
         <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>63927</v>
+        <v>59830</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>148</v>
@@ -2723,7 +2711,7 @@
         <v>197</v>
       </c>
       <c r="I4" s="7">
-        <v>103748</v>
+        <v>93255</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>151</v>
@@ -2738,16 +2726,16 @@
         <v>302</v>
       </c>
       <c r="N4" s="7">
-        <v>167676</v>
+        <v>153085</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,46 +2747,46 @@
         <v>585</v>
       </c>
       <c r="D5" s="7">
-        <v>476636</v>
+        <v>454112</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>1228</v>
       </c>
       <c r="I5" s="7">
-        <v>728826</v>
+        <v>659314</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1813</v>
       </c>
       <c r="N5" s="7">
-        <v>1205461</v>
+        <v>1113426</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2798,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2813,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832574</v>
+        <v>752569</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2840,7 +2828,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373137</v>
+        <v>1266511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2863,46 +2851,46 @@
         <v>98</v>
       </c>
       <c r="D7" s="7">
-        <v>74974</v>
+        <v>70693</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>54140</v>
+        <v>49597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>190</v>
       </c>
       <c r="N7" s="7">
-        <v>129114</v>
+        <v>120290</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,43 +2902,43 @@
         <v>1892</v>
       </c>
       <c r="D8" s="7">
-        <v>2085127</v>
+        <v>2217744</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>2825</v>
       </c>
       <c r="I8" s="7">
-        <v>2193080</v>
+        <v>2186088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>4717</v>
       </c>
       <c r="N8" s="7">
-        <v>4278206</v>
+        <v>4403831</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>177</v>
@@ -2965,7 +2953,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160101</v>
+        <v>2288437</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2980,7 +2968,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2247220</v>
+        <v>2235685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2995,7 +2983,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407320</v>
+        <v>4524121</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3018,7 +3006,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>24451</v>
+        <v>22993</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>178</v>
@@ -3033,7 +3021,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>18086</v>
+        <v>16794</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>181</v>
@@ -3048,13 +3036,13 @@
         <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>42538</v>
+        <v>39787</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>185</v>
@@ -3069,7 +3057,7 @@
         <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>648588</v>
+        <v>623630</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>186</v>
@@ -3084,7 +3072,7 @@
         <v>968</v>
       </c>
       <c r="I11" s="7">
-        <v>694926</v>
+        <v>642877</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>189</v>
@@ -3099,16 +3087,16 @@
         <v>1618</v>
       </c>
       <c r="N11" s="7">
-        <v>1343514</v>
+        <v>1266507</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3108,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3135,7 +3123,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713012</v>
+        <v>659671</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3150,7 +3138,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1386052</v>
+        <v>1306294</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3173,7 +3161,7 @@
         <v>234</v>
       </c>
       <c r="D13" s="7">
-        <v>163353</v>
+        <v>153516</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>194</v>
@@ -3188,31 +3176,31 @@
         <v>323</v>
       </c>
       <c r="I13" s="7">
-        <v>175975</v>
+        <v>159646</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>557</v>
       </c>
       <c r="N13" s="7">
-        <v>339328</v>
+        <v>313163</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,46 +3212,46 @@
         <v>3127</v>
       </c>
       <c r="D14" s="7">
-        <v>3210350</v>
+        <v>3295486</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>5021</v>
       </c>
       <c r="I14" s="7">
-        <v>3616831</v>
+        <v>3488278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
       </c>
       <c r="N14" s="7">
-        <v>6827181</v>
+        <v>6783763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,7 +3263,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373703</v>
+        <v>3449002</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3290,7 +3278,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3792806</v>
+        <v>3647924</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3305,7 +3293,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7166509</v>
+        <v>7096926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
